--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/cnn_validation_SubRCM_pcc_by_basic_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/cnn_validation_SubRCM_pcc_by_basic_fm_linear_rcm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC9651D-20A0-4BBA-81E7-F7455B04C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B84C81-EF30-4807-B6CB-AE8DF96070CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,7 +1145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2882,7 +2884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3461,7 +3465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -5198,7 +5204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -7514,7 +7522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -8093,7 +8103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9830,7 +9842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -11567,7 +11581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -12146,7 +12162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -13304,7 +13322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -14462,7 +14482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -16199,7 +16221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -16778,7 +16802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -18515,7 +18541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -20831,7 +20859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -21410,7 +21440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -23147,7 +23179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -24884,7 +24918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -26621,7 +26657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -27200,7 +27238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
